--- a/resources/Parameters.xlsx
+++ b/resources/Parameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Nucleic Acid</t>
-  </si>
-  <si>
-    <t>Volume222</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
